--- a/PagineHtml/4-Asciugamani monouso in rotolo o piegati per bagno e hotel | disposable hand towels roll folded paper towel bulk supplier.xlsx
+++ b/PagineHtml/4-Asciugamani monouso in rotolo o piegati per bagno e hotel | disposable hand towels roll folded paper towel bulk supplier.xlsx
@@ -1049,149 +1049,153 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Eco Friendly N Fold Z pieghevole Multi-piega 1Ply usa e getta mano asciugatrice goffratura carta fazzoletti di carta</t>
+          <t>Asciugamano di carta da bagno kraft riciclato monouso con 1 strato</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0,4331 €</t>
+          <t>0,6409 €</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ordine minimo: 100 scatole</t>
+          <t>Ordine minimo: 30.000 sacchi</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Dongguan Xingli Paper Industry Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>Dongguan Green Paper Industrial Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Asciugamano di carta da bagno kraft riciclato monouso con 1 strato</t>
+          <t>Fornitura di fabbrica OEM salviette arrotolate piegate usa e getta cotone in microfibra asciugamano per la pulizia del viso</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0,6409 €</t>
+          <t>0,0607 €</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ordine minimo: 30.000 sacchi</t>
+          <t>Ordine minimo: 50.000 sacchi</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Dongguan Green Paper Industrial Co., Ltd.</t>
+          <t>Kunming Ansheng Industry And Trade Co., Ltd.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fornitura di fabbrica OEM salviette arrotolate piegate usa e getta cotone in microfibra asciugamano per la pulizia del viso</t>
+          <t>OOLIMA usa e getta n piega Z Mulitifold asciugamani di carta per la cucina tovagliolo bagno</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0,0607 €</t>
+          <t>0,0087-0,0174 €</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ordine minimo: 50.000 sacchi</t>
+          <t>Ordine minimo: 100.000 parti</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Kunming Ansheng Industry And Trade Co., Ltd.</t>
+          <t>Ningbo Oolima Pack Co., Ltd.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>OOLIMA usa e getta n piega Z Mulitifold asciugamani di carta per la cucina tovagliolo bagno</t>
+          <t>Commercio all'ingrosso di alta qualità 1ply C tovagliolo di carta piegato per 25.4 a mano * 28cm bianco o kraft asciugamano di carta</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0,0087-0,0174 €</t>
+          <t>0,0867-0,1733 €</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Ordine minimo: 100.000 parti</t>
+          <t>Ordine minimo: 1.000 sacchi</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Ningbo Oolima Pack Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
+          <t>Qingdao Ample Technology Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Commercio all'ingrosso di alta qualità 1ply C tovagliolo di carta piegato per 25.4 a mano * 28cm bianco o kraft asciugamano di carta</t>
+          <t>Minguxan Factory Custom Multifold N piega asciugamani di carta bianca marrone carta igienica fazzoletti 1-2ply certificazione FSC Hotel bagno</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0,0867-0,1733 €</t>
+          <t>7,19-7,97 €</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ordine minimo: 1.000 sacchi</t>
+          <t>Ordine minimo: 500 cartoni</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Qingdao Ample Technology Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
+          <t>Hangzhou Mingxuan Sanitary Products Co., Ltd</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Minguxan Factory Custom Multifold N piega asciugamani di carta bianca marrone carta igienica fazzoletti 1-2ply certificazione FSC Hotel bagno</t>
+          <t>Vendita calda usa e getta Z /C/ V piega a mano asciugamano di carta piegato per fazzoletti di Hotel e ristoranti</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7,19-7,97 €</t>
+          <t>0,2166-0,3118 €</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ordine minimo: 500 cartoni</t>
+          <t>Ordine minimo: 10.000 sacchi</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Hangzhou Mingxuan Sanitary Products Co., Ltd</t>
+          <t>Zhangzhou Win Share Co., Ltd.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1203,22 +1207,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Vendita calda usa e getta Z /C/ V piega a mano asciugamano di carta piegato per fazzoletti di Hotel e ristoranti</t>
+          <t>Molteplici N e V Piega da bagno Asciugamani di Carta A Mano di trasporto del Commercio All'ingrosso Del Tessuto Tovagliolo di Carta</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0,2166-0,3118 €</t>
+          <t>0,2166-0,563 €</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ordine minimo: 10.000 sacchi</t>
+          <t>Ordine minimo: 20.000 pacchetti</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Zhangzhou Win Share Co., Ltd.</t>
+          <t>Sichuan Petrochemical Yashi Paper Co., Ltd.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1230,180 +1234,176 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Molteplici N e V Piega da bagno Asciugamani di Carta A Mano di trasporto del Commercio All'ingrosso Del Tessuto Tovagliolo di Carta</t>
+          <t>Prezzo competitivo Hotel ristorante fazzoletti usa e getta 1/2 strati riciclati carta vergine N piega mano Inter piegato tovagliolo di carta</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0,2166-0,563 €</t>
+          <t>0,4417 €</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ordine minimo: 20.000 pacchetti</t>
+          <t>Ordine minimo: 100 scatole</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Sichuan Petrochemical Yashi Paper Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
+          <t>Dongguan Xingli Paper Industry Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Prezzo competitivo Hotel ristorante fazzoletti usa e getta 1/2 strati riciclati carta vergine N piega mano Inter piegato tovagliolo di carta</t>
+          <t>Eco Friendly N fold Z fold Multi fold assorbente usa e getta asciugamano di carta da bagno asciugamano di carta a libro singolo</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0,4417 €</t>
+          <t>0,0693-0,4764 €</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ordine minimo: 100 scatole</t>
+          <t>Ordine minimo: 1 sacco</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Dongguan Xingli Paper Industry Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>Baoding Clean &amp; Soft Paper Product Technology Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Eco Friendly N fold Z fold Multi fold assorbente usa e getta asciugamano di carta da bagno asciugamano di carta a libro singolo</t>
+          <t>Asciugamani per gli ospiti usa e getta all'ingrosso di colore si sentono morbidi asciugamani per le mani da bagno tovaglioli di carta</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0,0693-0,4764 €</t>
+          <t>0,0607 €</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ordine minimo: 1 sacco</t>
+          <t>Ordine minimo: 5.000 parti</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Baoding Clean &amp; Soft Paper Product Technology Co., Ltd.</t>
+          <t>Jinan Huaao Nonwoven Technology Co., Ltd.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>4.8</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Asciugamani per gli ospiti usa e getta all'ingrosso di colore si sentono morbidi asciugamani per le mani da bagno tovaglioli di carta</t>
+          <t>Popolare carta bianca monouso da cucina a 2 strati all'ingrosso TravelFold carta da bagno 3 strati</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0,0607 €</t>
+          <t>0,1386-0,1906 €</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ordine minimo: 5.000 parti</t>
+          <t>Ordine minimo: 5.000 pacchetti</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Jinan Huaao Nonwoven Technology Co., Ltd.</t>
+          <t>Shandong CT super co.,ltd</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Popolare carta bianca monouso da cucina a 2 strati all'ingrosso TravelFold carta da bagno 3 strati</t>
+          <t>Piccoli asciugamani usa e getta in microfibra arrotolati e piegati per la fabbrica di asciugamani bagnati</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0,1386-0,1906 €</t>
+          <t>0,026 €</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ordine minimo: 5.000 pacchetti</t>
+          <t>Ordine minimo: 1.000 parti</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Shandong CT super co.,ltd</t>
+          <t>Jingzhou Choice Airline Appliance Co., Ltd.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Piccoli asciugamani usa e getta in microfibra arrotolati e piegati per la fabbrica di asciugamani bagnati</t>
+          <t>Tovaglioli 200 bagno monouso asciugamani bianchi per gli ospiti monouso carta velina per le mani a 2 strati piega campione gratuito</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0,026 €</t>
+          <t>0,0087-0,026 €</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ordine minimo: 1.000 parti</t>
+          <t>Ordine minimo: 10.000 parti</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Jingzhou Choice Airline Appliance Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
+          <t>Nanchang Huayang Trading Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Tovaglioli 200 bagno monouso asciugamani bianchi per gli ospiti monouso carta velina per le mani a 2 strati piega campione gratuito</t>
+          <t>Produttore OEM asciugamani di carta ad alta assorbenza personalizzati Asciugamano compattato laminato a 2 strati Multifold V piega Z carta assorbente asciugamano</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0,0087-0,026 €</t>
+          <t>0,4417-0,5024 €</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ordine minimo: 10.000 parti</t>
+          <t>Ordine minimo: 60.000 sacchi</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Nanchang Huayang Trading Co., Ltd.</t>
+          <t>Guizhou Zhiang Trading Co., Ltd.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -1411,95 +1411,99 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Produttore OEM asciugamani di carta ad alta assorbenza personalizzati Asciugamano compattato laminato a 2 strati Multifold V piega Z carta assorbente asciugamano</t>
+          <t>Premium usa e getta per la casa asciugamani di carta da cucina spessita asciugamani scatola intera per alberghi e bagni</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0,4417-0,5024 €</t>
+          <t>0,2252 €</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ordine minimo: 60.000 sacchi</t>
+          <t>Ordine minimo: 5.000 sacchi</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Guizhou Zhiang Trading Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
+          <t>Baoding Qianzi Trading Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Premium usa e getta per la casa asciugamani di carta da cucina spessita asciugamani scatola intera per alberghi e bagni</t>
+          <t>Erogatore all'ingrosso di tacchino intrecciato tovagliolo di carta Multifold di alta qualità a basso prezzo 2Ply Z carta velina pieghevole asciugamani per le mani</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0,2252 €</t>
+          <t>5,24-5,37 €</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Ordine minimo: 5.000 sacchi</t>
+          <t>Ordine minimo: 2.400 cartoni</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Baoding Qianzi Trading Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
+          <t>Erdenay Ticaret Dansmanlk Anonim Sirketi</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Erogatore all'ingrosso di tacchino intrecciato tovagliolo di carta Multifold di alta qualità a basso prezzo 2Ply Z carta velina pieghevole asciugamani per le mani</t>
+          <t>Vendita calda pieghevole usa e getta asciugamano e telo da bagno 100% tessuto Non tessuto Extra spesso e assorbente per viaggi Hotel palestra</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5,24-5,37 €</t>
+          <t>0,3811-0,8575 €</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ordine minimo: 2.400 cartoni</t>
+          <t>Ordine minimo: 3.000 parti</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Erdenay Ticaret Dansmanlk Anonim Sirketi</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t>Jiujiang Yijincheng Medical Equipment Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Vendita calda pieghevole usa e getta asciugamano e telo da bagno 100% tessuto Non tessuto Extra spesso e assorbente per viaggi Hotel palestra</t>
+          <t>A mano tovagliolo di carta papel higienico V fold articoli per la casa</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0,3811-0,8575 €</t>
+          <t>0,4946 €</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ordine minimo: 3.000 parti</t>
+          <t>Ordine minimo: 20.000 pacchetti</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Jiujiang Yijincheng Medical Equipment Co., Ltd.</t>
+          <t>Weifang NST Paper Industry Co., Ltd.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1511,89 +1515,85 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A mano tovagliolo di carta papel higienico V fold articoli per la casa</t>
+          <t>Z salviette di carta a mano pieghevoli e pieghevoli a 1 strato di carta igienica morbida carta per pulizia usa e getta</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0,4946 €</t>
+          <t>0,4764 €</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ordine minimo: 20.000 pacchetti</t>
+          <t>Ordine minimo: 30.000 parti</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Weifang NST Paper Industry Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
+          <t>Jiangmen Luck Tissue Mfy. Ltd.</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Z salviette di carta a mano pieghevoli e pieghevoli a 1 strato di carta igienica morbida carta per pulizia usa e getta</t>
+          <t>V piega il tovagliolo di carta usa e getta morbida carta igienica pasta di legno asciugamano di carta per le mani tovaglioli dell'hotel</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0,4764 €</t>
+          <t>0,3551 €</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Ordine minimo: 30.000 parti</t>
+          <t>Ordine minimo: 10 sacchi</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Jiangmen Luck Tissue Mfy. Ltd.</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+          <t>Baoding Yusen Sanitary Health Supplies Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>V piega il tovagliolo di carta usa e getta morbida carta igienica pasta di legno asciugamano di carta per le mani tovaglioli dell'hotel</t>
+          <t>Vendita diretta camera bianca pulizia oem interfold carta tovagliolo asciugamani piegati 3 pieghe carta asciugamani per le mani per il bagno</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0,3551 €</t>
+          <t>8,58-11,18 €</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Ordine minimo: 10 sacchi</t>
+          <t>Ordine minimo: 200 cartoni</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Baoding Yusen Sanitary Health Supplies Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
+          <t>Baoding Hozhong Paper Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Vendita diretta camera bianca pulizia oem interfold carta tovagliolo asciugamani piegati 3 pieghe carta asciugamani per le mani per il bagno</t>
+          <t>Vendita calda Z Pieghevole di carta alla rinfusa asciugamani bianchi per la pulizia di carta multiforme personalizzati</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>8,58-11,18 €</t>
+          <t>8,58-11,26 €</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1603,112 +1603,116 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Baoding Hozhong Paper Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+          <t>Baoding Hozhong Hygienic Products Manufacturing Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Vendita calda Z Pieghevole di carta alla rinfusa asciugamani bianchi per la pulizia di carta multiforme personalizzati</t>
+          <t>Qinshe commercio all'ingrosso personalizzato bagno cucina carta igienica tessuto 200 fogli 100% polpa vergine 1 velo N/Z piega asciugamani di carta a mano</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>8,58-11,26 €</t>
+          <t>0,5803-0,6323 €</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ordine minimo: 200 cartoni</t>
+          <t>Ordine minimo: 2.000 sacchi</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Baoding Hozhong Hygienic Products Manufacturing Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
+          <t>Hangzhou Qingshe Paper Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Qinshe commercio all'ingrosso personalizzato bagno cucina carta igienica tessuto 200 fogli 100% polpa vergine 1 velo N/Z piega asciugamani di carta a mano</t>
+          <t>Salviette umidificate in rotolo di asciugamano singolo asciugamani usa e getta personalizzati all'ingrosso asciugamani per il lavaggio delle mani dell'hotel</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0,5803-0,6323 €</t>
+          <t>0,1733 €</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ordine minimo: 2.000 sacchi</t>
+          <t>Ordine minimo: 100.000 pacchetti</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Hangzhou Qingshe Paper Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
+          <t>Ningbo Riway Nonwovens Tech Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Salviette umidificate in rotolo di asciugamano singolo asciugamani usa e getta personalizzati all'ingrosso asciugamani per il lavaggio delle mani dell'hotel</t>
+          <t>Multi Fold N fold N Fold usa e getta Eco Friendly Premium OEM salviette di carta fabbrica 1 strato di carta</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0,1733 €</t>
+          <t>0,2426 €</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ordine minimo: 100.000 pacchetti</t>
+          <t>Ordine minimo: 36.000 sacchi</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Ningbo Riway Nonwovens Tech Co., Ltd.</t>
+          <t>Baoda Paper Enterprise Co., Ltd.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Multi Fold N fold N Fold usa e getta Eco Friendly Premium OEM salviette di carta fabbrica 1 strato di carta</t>
+          <t>Asciugamano di carta monouso personalizzabile multiuso 2 3 4 5 C V N Z M</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0,2426 €</t>
+          <t>0,2599 €</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Ordine minimo: 36.000 sacchi</t>
+          <t>Ordine minimo: 10.000 pacchetti</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Baoda Paper Enterprise Co., Ltd.</t>
+          <t>Weifang Wehicredit Supply Chain Co., Ltd.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
